--- a/Códigos/Dinamica_molecular/RESUMEN.xlsx
+++ b/Códigos/Dinamica_molecular/RESUMEN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Valerie\U\Noveno_semestre\Tesis\Entregas_tesis\Tesis_Valerie_Valdez\Códigos\Dinamica_molecular\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C03DAFA-80D0-4FD6-B02F-B9278EC2156E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C16D69-61FA-4FF8-8D93-3BA78A0993D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9A7EC033-54F0-4228-9868-420AEF15FD3B}"/>
   </bookViews>
@@ -4906,8 +4906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D38C9B-F8E6-4908-9570-E93131804FAF}">
   <dimension ref="C2:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="87" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5106,10 +5106,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G17" s="2"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G20" s="2"/>
     </row>
   </sheetData>
